--- a/biology/Médecine/1522_en_santé_et_médecine/1522_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1522_en_santé_et_médecine/1522_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1522_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1522_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1522 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1522_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1522_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Impression par Jacques Ier Myt, à Lyon, du Canon d'Avicenne (980-1037) sous le titre de Liber canonis totius medicine et dans la traduction latine de Gérard de Crémone (1114-1187[1]) ou, selon certains, de Gérard de Sabbionetta (XIIIe siècle[2]).
-12 septembre : Jean-François de Saint-Nazaire de Ripa, professeur de droit civil, fait imprimer chez Jean de Channey, à Avignon, son traité sur la peste (De peste, libri tres ou Juridicus de peste tractatus), ouvrage qui aura « un grand retentissement dans toute l'Europe[3],[4] ».
-13 décembre : parution à Séville, chez Juan Varela et sous le titre de Metaphora medicinae, d'un manuel de médecine et de pharmacie de Bernardino de Laredo (1482-1540[5]).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Impression par Jacques Ier Myt, à Lyon, du Canon d'Avicenne (980-1037) sous le titre de Liber canonis totius medicine et dans la traduction latine de Gérard de Crémone (1114-1187) ou, selon certains, de Gérard de Sabbionetta (XIIIe siècle).
+12 septembre : Jean-François de Saint-Nazaire de Ripa, professeur de droit civil, fait imprimer chez Jean de Channey, à Avignon, son traité sur la peste (De peste, libri tres ou Juridicus de peste tractatus), ouvrage qui aura « un grand retentissement dans toute l'Europe, ».
+13 décembre : parution à Séville, chez Juan Varela et sous le titre de Metaphora medicinae, d'un manuel de médecine et de pharmacie de Bernardino de Laredo (1482-1540).</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1522_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1522_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant le 23 avril : Jean Ottemare (né à une date inconnue), dit Le Bochu, chirurgien à Amiens, censier de l'hôtel-Dieu de Corbie[6].
-Pierre Brissot (né en 1478), reçu docteur en médecine à Paris, auteur d'un ouvrage sur le traitement de la pleurésie  (Apologia de incisione venae in pleuritide morbo) publié à Paris en 1538[7].
-Antonio de Nebrija (né en 1441 ou 1444[8]), historiographe du Roi catholique, auteur d'un Lexicon artis medicamentariae publié à Alcalá de Henares en 1518[9].
-Bernard de Pontoise (né à une date inconnue), médecin du pape Alexandre VI, au service de la ville d'Angers en 1507 pendant une épidémie[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant le 23 avril : Jean Ottemare (né à une date inconnue), dit Le Bochu, chirurgien à Amiens, censier de l'hôtel-Dieu de Corbie.
+Pierre Brissot (né en 1478), reçu docteur en médecine à Paris, auteur d'un ouvrage sur le traitement de la pleurésie  (Apologia de incisione venae in pleuritide morbo) publié à Paris en 1538.
+Antonio de Nebrija (né en 1441 ou 1444), historiographe du Roi catholique, auteur d'un Lexicon artis medicamentariae publié à Alcalá de Henares en 1518.
+Bernard de Pontoise (né à une date inconnue), médecin du pape Alexandre VI, au service de la ville d'Angers en 1507 pendant une épidémie.
 </t>
         </is>
       </c>
